--- a/Datasets/Versuche/Versuche.xlsx
+++ b/Datasets/Versuche/Versuche.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datasets\Versuche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datasets\ModelCalibration\Datasets\Versuche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95713A9-FDCC-4B4B-A4C1-50D28CF650A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BBC047-D74E-47AD-A427-E3842CD07B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0BD4A609-6B96-42D9-B0D7-3873C80C126B}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>Mischung</t>
   </si>
   <si>
-    <t>Porbekörper</t>
-  </si>
-  <si>
     <t>Prüfdatum</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Druckfestigkeit</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Wolf 8.2 Probe 4</t>
   </si>
   <si>
@@ -167,33 +161,6 @@
     <t>Hüsken Probe 3-3</t>
   </si>
   <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Hüsken Probe 1-2</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Hüsken Probe 1-3</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Hüsken Probe 2-2</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Hüsken Probe 2-3</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Hüsken Probe 3-2</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Hüsken Probe 3-3</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Hüsken  E-Modul Probe 2-1</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Hüsken  E-Modul Probe 3-1-</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Hüsken  E-Modul Probe 3-3-</t>
-  </si>
-  <si>
     <t>Maack 8.2 Drucklversuch Probe BK 02 B</t>
   </si>
   <si>
@@ -230,150 +197,12 @@
     <t>Maack 8.2 Druckversuch Probe BK 04 B</t>
   </si>
   <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Wolf 8.2 Probe 1</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Wolf 8.2 Probe 4</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Wolf 8.2 Probe 5</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\SL51 28d 11.03.14 Probe3</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\SL51 28d 11.03.14 Probe2</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\SL51 28d 11.03.14 Probe1</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 E-Modul Probe BK 01 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 E-Modul Probe BK 04 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 03 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 05 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 06 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 07 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 08 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 09 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 10 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe BK 12 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe 11 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Maack 8.2 Drucklversuch Probe B2B2</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Werner 7.0 M III E-Modul 28d v. 06.08.14 Probe 4</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Werner 7.0 M III E-Modul 28d v. 06.08.14 Probe 5</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Werner 7.0 M III E-Modul 28d v. 06.08.14 Probe 6</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Werner 7.0 M IV E-Modul 28d v. 06.08.14 Probe 4</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Werner 7.0 M IV E-Modul 28d v. 06.08.14 Probe 5</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\Werner 7.0 M IV E-Modul 28d v. 06.08.14 Probe 6</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA Los M V-4</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA Los M V-5</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA Los M V-6</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA Los M VI-4</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA Los M VI-5-</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA Los M VI-6</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Maack 8.2 Drucklversuch Probe BK 02 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Maack 8.2 Drucklversuch Probe BK 03 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Maack 8.2 Druckversuch Probe BK 04 B</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Wolf 8.2 Probe 2</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Wolf 8.2 Probe 3</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\Druckfestigkeit\Wolf 8.2 Probe 6</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA-Losert MI E-Modul 28d v. 04.08.14 Probe 4</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA-Losert MI E-Modul 28d v. 04.08.14 Probe 5</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA-Losert MI E-Modul 28d v. 04.08.14 Probe 6</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA-Losert MII E-Modul 28d v. 04.08.14 Probe 4</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA-Losert MII E-Modul 28d v. 04.08.14 Probe 5-</t>
-  </si>
-  <si>
-    <t>\\GFS01\G01a\OE71BAU\03_FA713\03_Vorhaben\7188 LeBeDigital\Datensätze\alte Versuche\E-modul\BA-Losert MII E-Modul 28d v. 04.08.14 Probe 6</t>
-  </si>
-  <si>
     <t>Bohrkern Brücke</t>
   </si>
   <si>
-    <t>siehe Hüsken</t>
-  </si>
-  <si>
     <t>Nr. Versuche</t>
   </si>
   <si>
-    <t>2014_08_14_7.0_Werner</t>
-  </si>
-  <si>
-    <t>2014_08_04_7.0_Werner_2</t>
-  </si>
-  <si>
-    <t>2014_08_04_7.0_Werner</t>
-  </si>
-  <si>
     <t>Durchmesser [mm]</t>
   </si>
   <si>
@@ -387,13 +216,28 @@
   </si>
   <si>
     <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Probekörper</t>
+  </si>
+  <si>
+    <t>Zuordnung Mischungen unsicher</t>
+  </si>
+  <si>
+    <t>2014_03_11 Reprofilierungsplatten_Scharfe_Lanke</t>
+  </si>
+  <si>
+    <t>2014_08_04 Rezepturen_auf 85 Liter_Werner_Losert</t>
+  </si>
+  <si>
+    <t>2014_12_10 Wolf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,14 +253,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -456,15 +292,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -473,11 +300,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,18 +314,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,63 +636,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABEAD99-6164-421F-8EE2-2E786812EC44}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5546875" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="7" customWidth="1"/>
-    <col min="9" max="10" width="15.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="27.21875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42032</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5">
-        <v>42032</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -881,23 +703,22 @@
       <c r="F3">
         <v>300.3</v>
       </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5">
+      <c r="G3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4">
         <v>42032</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>79</v>
@@ -908,23 +729,22 @@
       <c r="F4">
         <v>300.2</v>
       </c>
-      <c r="G4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
+      <c r="G4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>42032</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>88</v>
@@ -935,23 +755,22 @@
       <c r="F5">
         <v>299.8</v>
       </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5">
+      <c r="G5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4">
         <v>42032</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -959,23 +778,22 @@
       <c r="F6">
         <v>98.6</v>
       </c>
-      <c r="G6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5">
+      <c r="G6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4">
         <v>42032</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -983,23 +801,22 @@
       <c r="F7">
         <v>98.6</v>
       </c>
-      <c r="G7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5">
+      <c r="G7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4">
         <v>42032</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1007,23 +824,20 @@
       <c r="F8">
         <v>300.3</v>
       </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5">
+      <c r="G8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4">
         <v>41716</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1034,23 +848,20 @@
       <c r="F9">
         <v>300</v>
       </c>
-      <c r="G9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5">
+      <c r="G9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4">
         <v>41716</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>57</v>
@@ -1061,23 +872,20 @@
       <c r="F10">
         <v>300</v>
       </c>
-      <c r="G10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5">
+      <c r="G10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4">
         <v>41716</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>104</v>
@@ -1088,23 +896,20 @@
       <c r="F11">
         <v>300</v>
       </c>
-      <c r="G11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5">
+      <c r="G11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4">
         <v>41716</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1112,23 +917,20 @@
       <c r="F12">
         <v>100.3</v>
       </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5">
+      <c r="G12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4">
         <v>41716</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1136,23 +938,20 @@
       <c r="F13">
         <v>100.3</v>
       </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5">
+      <c r="G13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4">
         <v>41716</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1160,23 +959,20 @@
       <c r="F14">
         <v>100.1</v>
       </c>
-      <c r="G14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5">
+      <c r="G14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4">
         <v>41716</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1184,23 +980,20 @@
       <c r="F15">
         <v>100.3</v>
       </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5">
+      <c r="G15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4">
         <v>41716</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -1208,23 +1001,20 @@
       <c r="F16">
         <v>100.3</v>
       </c>
-      <c r="G16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>48</v>
+      <c r="G16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4">
         <v>41716</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -1232,25 +1022,22 @@
       <c r="F17">
         <v>100.2</v>
       </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>49</v>
+      <c r="G17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4">
         <v>41737</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1261,23 +1048,22 @@
       <c r="F18">
         <v>298.10000000000002</v>
       </c>
-      <c r="G18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>69</v>
+      <c r="G18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5">
+      <c r="A19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4">
         <v>41737</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1288,23 +1074,22 @@
       <c r="F19">
         <v>298.2</v>
       </c>
-      <c r="G19" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>68</v>
+      <c r="G19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5">
+      <c r="A20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="4">
         <v>41737</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -1315,23 +1100,20 @@
       <c r="F20">
         <v>298.39999999999998</v>
       </c>
-      <c r="G20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>70</v>
+      <c r="G20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4">
         <v>41837</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>37</v>
@@ -1342,26 +1124,24 @@
       <c r="F21">
         <v>300.5</v>
       </c>
-      <c r="G21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="G21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4">
         <v>41837</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>43</v>
@@ -1372,26 +1152,24 @@
       <c r="F22">
         <v>300.5</v>
       </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="G22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4">
         <v>41837</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>96</v>
@@ -1402,26 +1180,24 @@
       <c r="F23">
         <v>200.5</v>
       </c>
-      <c r="G23" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="G23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4">
         <v>41838</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -1432,26 +1208,24 @@
       <c r="F24">
         <v>200.6</v>
       </c>
-      <c r="G24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>75</v>
-      </c>
+      <c r="G24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4">
         <v>41838</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>28</v>
@@ -1462,26 +1236,24 @@
       <c r="F25">
         <v>199.5</v>
       </c>
-      <c r="G25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="G25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4">
         <v>41838</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D26">
         <v>33</v>
@@ -1492,26 +1264,24 @@
       <c r="F26">
         <v>199.9</v>
       </c>
-      <c r="G26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="G26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4">
         <v>41838</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>50</v>
@@ -1522,26 +1292,24 @@
       <c r="F27">
         <v>299.89999999999998</v>
       </c>
-      <c r="G27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="G27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4">
         <v>41838</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D28">
         <v>72</v>
@@ -1552,26 +1320,24 @@
       <c r="F28">
         <v>200.2</v>
       </c>
-      <c r="G28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="G28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4">
         <v>41838</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>74</v>
@@ -1582,26 +1348,24 @@
       <c r="F29">
         <v>180.4</v>
       </c>
-      <c r="G29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="G29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4">
         <v>41838</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>86</v>
@@ -1612,26 +1376,24 @@
       <c r="F30">
         <v>200.3</v>
       </c>
-      <c r="G30" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="G30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4">
         <v>41838</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>94</v>
@@ -1642,26 +1404,24 @@
       <c r="F31">
         <v>200.2</v>
       </c>
-      <c r="G31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="G31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4">
         <v>41838</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>97</v>
@@ -1672,26 +1432,24 @@
       <c r="F32">
         <v>199.1</v>
       </c>
-      <c r="G32" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="G32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4">
         <v>41837</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>100.5</v>
@@ -1699,26 +1457,24 @@
       <c r="F33">
         <v>193.7</v>
       </c>
-      <c r="G33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="G33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="5">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4">
         <v>41837</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E34">
         <v>100.6</v>
@@ -1726,26 +1482,24 @@
       <c r="F34">
         <v>200.5</v>
       </c>
-      <c r="G34" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="G34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4">
         <v>41837</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>100.4</v>
@@ -1753,28 +1507,26 @@
       <c r="F35">
         <v>300.5</v>
       </c>
-      <c r="G35" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="G35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="4">
         <v>41883</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>17</v>
@@ -1785,25 +1537,22 @@
       <c r="F36">
         <v>300.60000000000002</v>
       </c>
-      <c r="G36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>103</v>
+      <c r="G36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="4">
         <v>41883</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1814,25 +1563,22 @@
       <c r="F37">
         <v>299.8</v>
       </c>
-      <c r="G37" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>106</v>
+      <c r="G37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="A38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="4">
         <v>41883</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>44</v>
@@ -1843,25 +1589,22 @@
       <c r="F38">
         <v>300.2</v>
       </c>
-      <c r="G38" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>104</v>
+      <c r="G38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="5">
+      <c r="A39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="4">
         <v>41883</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39">
         <v>56</v>
@@ -1872,25 +1615,22 @@
       <c r="F39">
         <v>300.2</v>
       </c>
-      <c r="G39" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>105</v>
+      <c r="G39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="A40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="4">
         <v>41883</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>99</v>
@@ -1901,25 +1641,22 @@
       <c r="F40">
         <v>300.2</v>
       </c>
-      <c r="G40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>102</v>
+      <c r="G40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="A41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="4">
         <v>41883</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>102</v>
@@ -1930,23 +1667,22 @@
       <c r="F41">
         <v>300.3</v>
       </c>
-      <c r="G41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="7">
-        <v>1</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>101</v>
+      <c r="G41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5">
+      <c r="A42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="4">
         <v>41885</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>26</v>
@@ -1957,23 +1693,25 @@
       <c r="F42">
         <v>300.2</v>
       </c>
-      <c r="G42" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="7">
-        <v>1</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>87</v>
+      <c r="G42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5">
+      <c r="A43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="4">
         <v>41885</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>31</v>
@@ -1984,23 +1722,25 @@
       <c r="F43">
         <v>300.39999999999998</v>
       </c>
-      <c r="G43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="7">
-        <v>1</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>84</v>
+      <c r="G43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5">
+      <c r="A44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="4">
         <v>41885</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -2011,23 +1751,25 @@
       <c r="F44">
         <v>300.3</v>
       </c>
-      <c r="G44" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="7">
-        <v>1</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>86</v>
+      <c r="G44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5">
+      <c r="A45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="4">
         <v>41885</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45">
         <v>64</v>
@@ -2038,23 +1780,25 @@
       <c r="F45">
         <v>300.2</v>
       </c>
-      <c r="G45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="7">
-        <v>1</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>83</v>
+      <c r="G45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5">
+      <c r="A46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="4">
         <v>41885</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46">
         <v>78</v>
@@ -2065,23 +1809,25 @@
       <c r="F46">
         <v>300.39999999999998</v>
       </c>
-      <c r="G46" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="7">
-        <v>1</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>85</v>
+      <c r="G46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="5">
+      <c r="A47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="4">
         <v>41885</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>91</v>
@@ -2092,25 +1838,25 @@
       <c r="F47">
         <v>300.39999999999998</v>
       </c>
-      <c r="G47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>88</v>
+      <c r="G47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="A48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="4">
         <v>41893</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2121,25 +1867,22 @@
       <c r="F48">
         <v>300.2</v>
       </c>
-      <c r="G48" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="7">
-        <v>1</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="5">
+      <c r="G48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="4">
         <v>41893</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D49">
         <v>20</v>
@@ -2150,25 +1893,22 @@
       <c r="F49">
         <v>300.3</v>
       </c>
-      <c r="G49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="7">
-        <v>1</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="G49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="4">
         <v>41893</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D50">
         <v>38</v>
@@ -2179,25 +1919,22 @@
       <c r="F50">
         <v>300.2</v>
       </c>
-      <c r="G50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="7">
-        <v>1</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="5">
+      <c r="G50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="4">
         <v>41893</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>61</v>
@@ -2208,25 +1945,22 @@
       <c r="F51">
         <v>300.2</v>
       </c>
-      <c r="G51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="5">
+      <c r="G51" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="4">
         <v>41893</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52">
         <v>70</v>
@@ -2237,25 +1971,22 @@
       <c r="F52">
         <v>300.2</v>
       </c>
-      <c r="G52" t="s">
-        <v>116</v>
-      </c>
-      <c r="H52" s="7">
-        <v>1</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="5">
+      <c r="G52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="4">
         <v>41893</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D53">
         <v>85</v>
@@ -2266,71 +1997,15 @@
       <c r="F53">
         <v>300.10000000000002</v>
       </c>
-      <c r="G53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="7">
-        <v>1</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>91</v>
+      <c r="G53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" xr:uid="{E464EBCC-03EB-4DC5-B898-E0AE012E565E}"/>
-    <hyperlink ref="K19" r:id="rId2" xr:uid="{BBC4B435-CBE6-44F2-85CF-DCD2F738440E}"/>
-    <hyperlink ref="K18" r:id="rId3" xr:uid="{6F11638B-84EF-4846-B2E3-FE68A0085F28}"/>
-    <hyperlink ref="K17" r:id="rId4" xr:uid="{44D4688C-ADCA-4860-91B9-45B011C28F3B}"/>
-    <hyperlink ref="K16" r:id="rId5" xr:uid="{DC2E107F-BB41-4887-9F53-2F58DBE1D524}"/>
-    <hyperlink ref="K15" r:id="rId6" xr:uid="{D5D2D93E-CD73-479B-B174-2FE7B47F48B7}"/>
-    <hyperlink ref="K13" r:id="rId7" xr:uid="{ADA5EF23-584D-4A4C-8013-2977F5171E63}"/>
-    <hyperlink ref="K12" r:id="rId8" xr:uid="{1A33DB46-B962-4FEB-9A74-06BBF38A1EF8}"/>
-    <hyperlink ref="K11" r:id="rId9" xr:uid="{A8FDBD94-2015-4B24-81FF-263844489A4F}"/>
-    <hyperlink ref="K9" r:id="rId10" xr:uid="{F10AF78F-6CA3-4EB0-8B2F-8D7603DBB4EC}"/>
-    <hyperlink ref="K5" r:id="rId11" xr:uid="{AD3CE073-B5DE-415B-8AD2-05206F721D5F}"/>
-    <hyperlink ref="K4" r:id="rId12" xr:uid="{AD654C62-D959-4400-845A-EAE1E04323AA}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{75EDF575-4ED7-4130-8043-ABAAA8F55893}"/>
-    <hyperlink ref="K10" r:id="rId14" xr:uid="{5ADF2059-A72D-47DC-BDAF-7890AF3027E1}"/>
-    <hyperlink ref="K20" r:id="rId15" xr:uid="{EB936723-2F7B-4C3B-BD88-AADC8253489C}"/>
-    <hyperlink ref="K22" r:id="rId16" xr:uid="{A3422311-5F23-4000-83DC-D00A8C604C9D}"/>
-    <hyperlink ref="K21" r:id="rId17" xr:uid="{CD846C2E-86FA-46B5-A7C5-919614F2EDF8}"/>
-    <hyperlink ref="K6" r:id="rId18" xr:uid="{BB2C080A-8FD1-47AE-8F5E-D77025C4DAE0}"/>
-    <hyperlink ref="K7" r:id="rId19" xr:uid="{CD63C2B8-9141-407D-89C9-7625ED47940A}"/>
-    <hyperlink ref="K8" r:id="rId20" xr:uid="{75522139-7502-4180-A052-9C731C839E79}"/>
-    <hyperlink ref="K53" r:id="rId21" xr:uid="{E5FF106E-A987-41ED-84E9-6C881C17E3F0}"/>
-    <hyperlink ref="K52" r:id="rId22" xr:uid="{1C3BCE06-3755-4AD8-A9D1-555D9810D320}"/>
-    <hyperlink ref="K51" r:id="rId23" xr:uid="{03A16E14-E70D-4D5F-9821-CA713C11FF53}"/>
-    <hyperlink ref="K50" r:id="rId24" xr:uid="{23BF942C-36A1-4E16-B89B-369B595ED77E}"/>
-    <hyperlink ref="K49" r:id="rId25" xr:uid="{DD5B7E61-8B13-4AC6-96B4-75C0D4D86618}"/>
-    <hyperlink ref="K48" r:id="rId26" xr:uid="{C7358637-1A81-4812-AB54-D92641CB77C7}"/>
-    <hyperlink ref="K47" r:id="rId27" xr:uid="{59CD8ECB-CD80-40A7-A1B2-F221A8307583}"/>
-    <hyperlink ref="K46" r:id="rId28" xr:uid="{2ADAED77-6E1B-4210-8065-3C69E690A6D8}"/>
-    <hyperlink ref="K45" r:id="rId29" xr:uid="{D5C1E364-9976-4C48-9705-B523460BCF25}"/>
-    <hyperlink ref="K44" r:id="rId30" xr:uid="{B889A11F-6A3A-425E-ACB4-C2C145622069}"/>
-    <hyperlink ref="K43" r:id="rId31" xr:uid="{B98CE005-7B1B-4B18-9B3D-250996B28882}"/>
-    <hyperlink ref="K42" r:id="rId32" xr:uid="{E4004D28-44F5-447F-A7D4-309E476BC3D4}"/>
-    <hyperlink ref="K41" r:id="rId33" xr:uid="{DC560017-B410-4967-A369-0DE7F165EA3F}"/>
-    <hyperlink ref="K40" r:id="rId34" xr:uid="{2551F65D-87D6-4439-B507-870ABB1163F9}"/>
-    <hyperlink ref="K39" r:id="rId35" xr:uid="{25E7AC18-4CD0-4126-8357-0CDFB661A8A0}"/>
-    <hyperlink ref="K38" r:id="rId36" xr:uid="{2B2DBC18-373F-4E2A-8499-DEC14211AE7E}"/>
-    <hyperlink ref="K37" r:id="rId37" xr:uid="{8C2E3749-9970-4890-8DB2-7D8D27950039}"/>
-    <hyperlink ref="K36" r:id="rId38" xr:uid="{E8169A19-4EB4-4A52-8EF6-FCE08ED30DAA}"/>
-    <hyperlink ref="K35" r:id="rId39" xr:uid="{C9D9FEA1-F904-4696-9FF5-2B5442CBE8A7}"/>
-    <hyperlink ref="K34" r:id="rId40" xr:uid="{54418E66-E620-49AF-BCDE-F94026CC093C}"/>
-    <hyperlink ref="K33" r:id="rId41" xr:uid="{F003DD14-EE2D-4ACC-9275-5027CBC1878E}"/>
-    <hyperlink ref="K32" r:id="rId42" xr:uid="{33C7A28C-DD6B-4913-96ED-DCACB9D63CCC}"/>
-    <hyperlink ref="K31" r:id="rId43" xr:uid="{11A53614-CAFC-4098-BB0D-1B4EAE995198}"/>
-    <hyperlink ref="K30" r:id="rId44" xr:uid="{E24232D7-8516-48F5-AD23-85CC7B98B1B6}"/>
-    <hyperlink ref="K29" r:id="rId45" xr:uid="{C606CE1D-2C3B-423B-8ED8-03561B26C4D3}"/>
-    <hyperlink ref="K28" r:id="rId46" xr:uid="{4D5D91C8-825A-4DD2-9A41-63CD691FA0C8}"/>
-    <hyperlink ref="K27" r:id="rId47" xr:uid="{E3C56199-6A88-469A-9376-258A173210F6}"/>
-    <hyperlink ref="K26" r:id="rId48" xr:uid="{D881CBF8-D92B-4CAC-8048-9843A9AA110A}"/>
-    <hyperlink ref="K25" r:id="rId49" xr:uid="{1B616E7D-36BA-4799-8A42-8253B00FC6DC}"/>
-    <hyperlink ref="K24" r:id="rId50" xr:uid="{91CAA579-3E15-4AE0-9EEE-35795D0080F9}"/>
-    <hyperlink ref="K23" r:id="rId51" xr:uid="{DC7C885A-F3EF-4147-BB18-924A119A652A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>